--- a/data/trans_bre/P1417-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1417-Clase-trans_bre.xlsx
@@ -660,24 +660,24 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.8754291485123245</v>
+        <v>-0.8328897442294569</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3507386620074984</v>
+        <v>0.2284043606335959</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.2366966445438231</v>
+        <v>-0.2359201296827018</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.545715237911174</v>
+        <v>1.68617635153791</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.4465165160758836</v>
+        <v>-0.514550188295109</v>
       </c>
       <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="n">
-        <v>0.9992708592437068</v>
+        <v>1.135747137543571</v>
       </c>
     </row>
     <row r="6">
@@ -688,22 +688,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.026985354315813</v>
+        <v>2.119635911053928</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.908581628183674</v>
+        <v>3.838357774028758</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.617652930531193</v>
+        <v>2.371996261585548</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.606390360349084</v>
+        <v>4.695378526499681</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>27.49641492749353</v>
+        <v>35.17498236984791</v>
       </c>
     </row>
     <row r="7">
@@ -739,7 +739,7 @@
         <v>0.6367630027801696</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>3.091213540053582</v>
+        <v>3.091213540053583</v>
       </c>
     </row>
     <row r="8">
@@ -750,24 +750,24 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06193076493948832</v>
+        <v>0.05874143398815616</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6704578267132906</v>
+        <v>0.5663253271690057</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.9010126716488709</v>
+        <v>-0.8889367037088446</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.022584237066881</v>
+        <v>1.023193636876905</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.7989087310663526</v>
+        <v>-0.783176938623954</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4993895025167295</v>
+        <v>0.4857114214965415</v>
       </c>
     </row>
     <row r="9">
@@ -778,22 +778,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.850778157421201</v>
+        <v>2.924642202051262</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.228392962137019</v>
+        <v>3.95205750230894</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.103942761831079</v>
+        <v>2.077892284364007</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.379627636331811</v>
+        <v>4.201288910399275</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="n">
-        <v>14.46560513062767</v>
+        <v>14.49527274966651</v>
       </c>
     </row>
     <row r="10">
@@ -829,7 +829,7 @@
         <v>3.444092312206534</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2.062773005037941</v>
+        <v>2.06277300503794</v>
       </c>
     </row>
     <row r="11">
@@ -840,26 +840,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7511490075052993</v>
+        <v>0.835495841169989</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4485042882711431</v>
+        <v>0.4250448981851385</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6497537200006508</v>
+        <v>0.6952074131775167</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7943101703371015</v>
+        <v>0.8012234535273813</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.06514962595421007</v>
+        <v>-0.08027611154107793</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>-0.0539419677369129</v>
+        <v>0.1009092267537539</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2879587465154688</v>
+        <v>0.2018193846340769</v>
       </c>
     </row>
     <row r="12">
@@ -870,26 +870,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.745206887024906</v>
+        <v>7.240109902984616</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.991692525737943</v>
+        <v>3.895524097764412</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.687410846100945</v>
+        <v>7.301175047724488</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.332889706839956</v>
+        <v>6.025244337157591</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>32.94776066829571</v>
+        <v>28.06222478184864</v>
       </c>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="n">
-        <v>15.20940244891825</v>
+        <v>16.80808935298701</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>6.553264544865718</v>
+        <v>6.153107056369434</v>
       </c>
     </row>
     <row r="13">
@@ -936,28 +936,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4133330284581047</v>
+        <v>0.4025578631234639</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4825981116561506</v>
+        <v>0.5736943968677412</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9099859167882968</v>
+        <v>0.7542922120155942</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7451626921124952</v>
+        <v>0.7214179569719484</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4175561365809741</v>
+        <v>0.5491934703143938</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3228141636363155</v>
+        <v>0.3024159104827204</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7830124491677418</v>
+        <v>0.7894479442869812</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3217191648466299</v>
+        <v>0.3409923057129555</v>
       </c>
     </row>
     <row r="15">
@@ -968,26 +968,26 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.182389555305987</v>
+        <v>2.136245096710725</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.777172430186826</v>
+        <v>2.973002832168888</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.152475732332056</v>
+        <v>2.982555161652408</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.113421146510965</v>
+        <v>2.91654586763224</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>8.162919712603676</v>
+        <v>8.248193799896569</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>13.93865575100317</v>
+        <v>14.54323615587995</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3.227538965877121</v>
+        <v>3.075210848126701</v>
       </c>
     </row>
     <row r="16">
@@ -1034,28 +1034,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.9817296994706151</v>
+        <v>-1.026071316314787</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.829066340265775</v>
+        <v>1.780872842315022</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.326559421805408</v>
+        <v>2.243173939156455</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.657076663167453</v>
+        <v>2.61477105879157</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.506072999148402</v>
+        <v>-0.574772360175403</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9191800051859269</v>
+        <v>0.8297022440767063</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.387699661897078</v>
+        <v>2.071045420452115</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.7189880342400181</v>
+        <v>0.7890851338650507</v>
       </c>
     </row>
     <row r="18">
@@ -1066,28 +1066,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.370727921009224</v>
+        <v>2.453397130198361</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.39362468887196</v>
+        <v>5.282582617788823</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.718628039443837</v>
+        <v>5.351840509197283</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.455976129433323</v>
+        <v>6.235780791641979</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4.432075082788365</v>
+        <v>4.123187205044754</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>21.86715461616464</v>
+        <v>19.37679222590974</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>34.57144753796055</v>
+        <v>31.66643095237282</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4.250342599402879</v>
+        <v>4.567753028465264</v>
       </c>
     </row>
     <row r="19">
@@ -1140,21 +1140,21 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.178120816877977</v>
+        <v>1.172739257556135</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.504282628634585</v>
+        <v>1.545250859907011</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.4382799004854093</v>
+        <v>-0.529688518129547</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3.4123033843776</v>
+        <v>3.365209948559474</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.448185123992966</v>
+        <v>-0.43765578515637</v>
       </c>
       <c r="J20" s="6" t="inlineStr"/>
     </row>
@@ -1166,16 +1166,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.817539423607767</v>
+        <v>2.779754316265189</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.589860794537263</v>
+        <v>3.496567731882341</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.339600475948213</v>
+        <v>2.295675627531412</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6.068439443380749</v>
+        <v>6.071048914042033</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
@@ -1203,7 +1203,7 @@
         <v>1.859494611629425</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3.213248793640337</v>
+        <v>3.213248793640338</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>3.141400397952224</v>
@@ -1215,7 +1215,7 @@
         <v>3.296900840317775</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2.627261761290614</v>
+        <v>2.627261761290616</v>
       </c>
     </row>
     <row r="23">
@@ -1226,28 +1226,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7777728604424795</v>
+        <v>0.8177650565528584</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.680327387575614</v>
+        <v>1.707835887178069</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.303405259580306</v>
+        <v>1.240281360035043</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.565272905217294</v>
+        <v>2.595890115763959</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1.121715316925803</v>
+        <v>1.273573435489415</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2.558036049430928</v>
+        <v>2.542251762386574</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1.570084722171876</v>
+        <v>1.614802345911857</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1.649623494159208</v>
+        <v>1.727475722000502</v>
       </c>
     </row>
     <row r="24">
@@ -1258,28 +1258,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.820009696578149</v>
+        <v>1.822353778752063</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.939131866603615</v>
+        <v>2.862163295864073</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.429851096899203</v>
+        <v>2.407779174095279</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.87017429167556</v>
+        <v>3.892614552777888</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>7.009019658016795</v>
+        <v>7.216394451620922</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>9.714568885266646</v>
+        <v>9.880131017857387</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>6.017223852938697</v>
+        <v>6.043402355992081</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>3.851267109302765</v>
+        <v>3.97506974950813</v>
       </c>
     </row>
     <row r="25">
